--- a/Output/ShoppingListForm.xlsx
+++ b/Output/ShoppingListForm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyan\Documents\UiPath\Newfolder\AIPriceComparisonApp\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E79AA67-52CF-4039-8897-0C941414F387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D5B7CC-1E71-4E74-B351-8ECF8E3221EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1725" windowWidth="28110" windowHeight="16440" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="20910" windowHeight="11835" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="99">
   <si>
     <t>Name</t>
   </si>
@@ -111,7 +111,7 @@
     <t>Alice_Aw's Market Fresh Indonesian Pork Belly (Sliced)</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/aw-s-market-fresh-indonesian-pork-belly-sliced-250-g-90018587</t>
+    <t>https://www.fairprice.com.sg/search?query=Aw%27s%20Market%20Fresh%20Indonesian%20Pork%20Belly%20(Sliced)</t>
   </si>
   <si>
     <t>$6.00</t>
@@ -144,7 +144,7 @@
     <t>Bruce_Pokka Ice Lemon Tea</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/pokka-ice-lemon-tea-15lt-376287</t>
+    <t>https://www.fairprice.com.sg/search?query=Pokka%20Ice%20Lemon%20Tea</t>
   </si>
   <si>
     <t>$2.15</t>
@@ -159,13 +159,13 @@
     <t>Bruce_Ruffles Chicken</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/aw-s-market-chicken-breast-skinless-200-g-90134679</t>
-  </si>
-  <si>
-    <t>$3.50</t>
-  </si>
-  <si>
-    <t>3.5</t>
+    <t>https://www.fairprice.com.sg/product/ruffles-potato-chips-chicken-184-2g-13086598</t>
+  </si>
+  <si>
+    <t>$5.30</t>
+  </si>
+  <si>
+    <t>5.3</t>
   </si>
   <si>
     <t>Wayne</t>
@@ -177,7 +177,7 @@
     <t>Wayne_Marigold HL Milk - Chocolate</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/marigold-hl-milk-chocolate-1lt-10054432</t>
+    <t>https://www.fairprice.com.sg/search?query=Marigold%20HL%20Milk%20-%20Chocolate</t>
   </si>
   <si>
     <t>$3.53</t>
@@ -240,7 +240,7 @@
     <t>George_Lipton Yellow Label Tea</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/lipton-yellow-label-teabags-100s-72207</t>
+    <t>https://www.fairprice.com.sg/search?query=Lipton%20Yellow%20Label%20Tea</t>
   </si>
   <si>
     <t>$5.70</t>
@@ -255,7 +255,7 @@
     <t>George_Panteen Shampoo Hail Fall Control</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/pantene-shampoo-hair-fall-control-680ml-13194383</t>
+    <t>https://www.fairprice.com.sg/search?query=Panteen%20Shampoo%20Hail%20Fall%20Control</t>
   </si>
   <si>
     <t>$11.61</t>
@@ -373,9 +373,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -736,7 +735,7 @@
         <v>3.99</v>
       </c>
       <c r="J2">
-        <v>14.99</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -814,7 +813,7 @@
         <v>3.99</v>
       </c>
       <c r="J5">
-        <v>26.49</v>
+        <v>28.29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1025,130 +1024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05DAFD9-A3F9-4953-BE96-F81EED202324}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>3.9</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>3.99</v>
-      </c>
-      <c r="J2">
-        <v>14.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3.63</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E5ACEE-EA76-4E25-8B10-BECB0471869B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3AB212-992E-4659-9FA2-6E35086BAF8F}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1183,19 +1059,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="3">
-        <v>4.95</v>
+        <v>94</v>
+      </c>
+      <c r="B2">
+        <v>3.95</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>4.95</v>
+        <v>3.95</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -1209,36 +1085,36 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2.15</v>
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>3.6</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E3">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4.75</v>
+        <v>97</v>
+      </c>
+      <c r="B4">
+        <v>4.45</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <v>4.75</v>
+        <v>4.45</v>
       </c>
     </row>
   </sheetData>
@@ -1246,8 +1122,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C483800-40BF-4B7E-A997-8706BC1BF67E}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B4824F-1615-48BC-964C-4E1898C2DA7C}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1282,6 +1158,105 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.95</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2">
+        <v>4.95</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1.99</v>
+      </c>
+      <c r="H2">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4">
+        <v>4.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE7A362-EE31-4C8E-930F-408A2D5A88C9}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>84</v>
       </c>
       <c r="B2">
@@ -1346,7 +1321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68525EA9-D39C-4D8D-B9B3-96DFB39BB98C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7A689E-CA86-4DCE-8B34-BE6775A4A4DF}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1398,7 +1373,7 @@
       <c r="D2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>3.33</v>
       </c>
       <c r="F2">
@@ -1430,7 +1405,7 @@
       <c r="D3" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>5.7</v>
       </c>
       <c r="F3">
@@ -1453,7 +1428,7 @@
       <c r="D4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>11.61</v>
       </c>
       <c r="F4">
@@ -1886,7 +1861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E997B2-C8B7-4F8C-A5AC-2A046E6666FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F24B7D-969D-43A3-A478-C971577EB681}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1954,7 +1929,7 @@
         <v>3.99</v>
       </c>
       <c r="J2">
-        <v>14.99</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2009,7 +1984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B244952B-EB54-440E-85A5-F654A01A8BB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39F3D8D-CE0B-4645-9ECD-02213DD50B24}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2077,7 +2052,7 @@
         <v>3.99</v>
       </c>
       <c r="J2">
-        <v>26.49</v>
+        <v>28.29</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2117,13 +2092,13 @@
         <v>40</v>
       </c>
       <c r="E4" s="1">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6042328-8B27-43A0-A203-E49EAE18C35F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453A66F3-A4DA-4F19-B809-FE1E260A31E6}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2255,7 +2230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6458C7-4FC0-47EE-B074-083E92F0BD83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED184B4D-E201-4461-A5E4-22FA861A5D1C}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Output/ShoppingListForm.xlsx
+++ b/Output/ShoppingListForm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyan\Documents\UiPath\Newfolder\AIPriceComparisonApp\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyan\.nuget\packages\aipricecomparisonapp\1.0.2\content\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D5B7CC-1E71-4E74-B351-8ECF8E3221EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348E56B4-EB57-4B7D-91D1-D2C9BB6024C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="20910" windowHeight="11835" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,6 @@
     <sheet name="SS_Wayne" sheetId="3" r:id="rId3"/>
     <sheet name="SS_George" sheetId="4" r:id="rId4"/>
     <sheet name="SS_Alice" sheetId="5" r:id="rId5"/>
-    <sheet name="FP_Alice" sheetId="6" r:id="rId6"/>
-    <sheet name="FP_Bruce" sheetId="7" r:id="rId7"/>
-    <sheet name="FP_Wayne" sheetId="8" r:id="rId8"/>
-    <sheet name="FP_George" sheetId="9" r:id="rId9"/>
-    <sheet name="Alice" sheetId="10" r:id="rId10"/>
-    <sheet name="Bruce" sheetId="11" r:id="rId11"/>
-    <sheet name="Wayne" sheetId="12" r:id="rId12"/>
-    <sheet name="George" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -78,16 +70,16 @@
     <t>Alice_Fresh Blueberries</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/agroberries-premium-blueberry-bleuets-125g-10632060</t>
-  </si>
-  <si>
-    <t>$3.90</t>
+    <t>https://www.fairprice.com.sg/product/f-n-fruit-tree-fresh-bottle-juice-blueberry-cranberry-200ml-12207922</t>
+  </si>
+  <si>
+    <t>$1.21</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>3.9</t>
+    <t>1.21</t>
   </si>
   <si>
     <t>Fiber Jelly Grape</t>
@@ -111,7 +103,7 @@
     <t>Alice_Aw's Market Fresh Indonesian Pork Belly (Sliced)</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/search?query=Aw%27s%20Market%20Fresh%20Indonesian%20Pork%20Belly%20(Sliced)</t>
+    <t>https://www.fairprice.com.sg/product/aw-s-market-fresh-indonesian-pork-belly-sliced-250-g-90018587</t>
   </si>
   <si>
     <t>$6.00</t>
@@ -132,10 +124,10 @@
     <t>https://www.fairprice.com.sg/product/13140390</t>
   </si>
   <si>
-    <t>$11.85</t>
-  </si>
-  <si>
-    <t>11.85</t>
+    <t>$13.07</t>
+  </si>
+  <si>
+    <t>13.07</t>
   </si>
   <si>
     <t>Pokka Ice Lemon Tea</t>
@@ -177,7 +169,7 @@
     <t>Wayne_Marigold HL Milk - Chocolate</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/search?query=Marigold%20HL%20Milk%20-%20Chocolate</t>
+    <t>https://www.fairprice.com.sg/product/marigold-hl-milk-chocolate-1lt-10054432</t>
   </si>
   <si>
     <t>$3.53</t>
@@ -195,19 +187,13 @@
     <t>https://www.fairprice.com.sg/product/lay-s-potato-chips-classic-170g-13218718</t>
   </si>
   <si>
-    <t>$4.80</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
     <t>Milo Instant Chocalate Malt Drink</t>
   </si>
   <si>
     <t>Wayne_Milo Instant Chocalate Malt Drink</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/milo-instant-chocolate-malt-drink-powder-with-milk-gao-kosong-750g-13135484</t>
+    <t>https://www.fairprice.com.sg/search?query=Milo%20Instant%20Chocalate%20Malt%20Drink</t>
   </si>
   <si>
     <t>$8.58</t>
@@ -225,7 +211,7 @@
     <t>George_Maggi Big Curry Noodle</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/maggi-2-min-big-noodles-curry-5s-x-111g-13064199</t>
+    <t>https://www.fairprice.com.sg/search?query=Maggi%20Big%20Curry%20Noodle</t>
   </si>
   <si>
     <t>$3.33</t>
@@ -340,10 +326,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,11 +355,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2 A2:J13"/>
     </sheetView>
   </sheetViews>
@@ -735,7 +714,7 @@
         <v>3.99</v>
       </c>
       <c r="J2">
-        <v>22.52</v>
+        <v>19.829999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -813,7 +792,7 @@
         <v>3.99</v>
       </c>
       <c r="J5">
-        <v>28.29</v>
+        <v>29.509999999999899</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -891,7 +870,7 @@
         <v>3.99</v>
       </c>
       <c r="J8">
-        <v>25.9</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -908,13 +887,13 @@
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -922,45 +901,45 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
         <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
         <v>62</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -974,468 +953,48 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>66</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
         <v>67</v>
-      </c>
-      <c r="E12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
         <v>70</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>71</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
         <v>72</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3AB212-992E-4659-9FA2-6E35086BAF8F}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2">
-        <v>3.95</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2">
-        <v>3.95</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>1.99</v>
-      </c>
-      <c r="H2">
-        <v>19.989999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>3.6</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4">
-        <v>4.45</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4">
-        <v>4.45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B4824F-1615-48BC-964C-4E1898C2DA7C}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2">
-        <v>4.95</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2">
-        <v>4.95</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>1.99</v>
-      </c>
-      <c r="H2">
-        <v>19.989999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2.15</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4.75</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4">
-        <v>4.75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE7A362-EE31-4C8E-930F-408A2D5A88C9}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2">
-        <v>3.53</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2">
-        <v>3.53</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>1.99</v>
-      </c>
-      <c r="H2">
-        <v>24.84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3">
-        <v>4.75</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4">
-        <v>48.57</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4">
-        <v>8.57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7A689E-CA86-4DCE-8B34-BE6775A4A4DF}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3.33</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>3.33</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>3.99</v>
-      </c>
-      <c r="J2">
-        <v>29.63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="3">
-        <v>11.61</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>11.61</v>
       </c>
     </row>
   </sheetData>
@@ -1470,10 +1029,10 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -1484,16 +1043,16 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -1516,7 +1075,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
@@ -1527,16 +1086,16 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1571,10 +1130,10 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -1582,7 +1141,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>3.53</v>
@@ -1591,7 +1150,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E2">
         <v>3.53</v>
@@ -1608,7 +1167,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>4.75</v>
@@ -1617,7 +1176,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>4.75</v>
@@ -1625,7 +1184,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>48.57</v>
@@ -1634,7 +1193,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <v>8.57</v>
@@ -1675,10 +1234,10 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -1686,7 +1245,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1695,7 +1254,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -1712,7 +1271,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>9.99</v>
@@ -1721,7 +1280,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3">
         <v>9.99</v>
@@ -1729,7 +1288,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4">
         <v>11.6</v>
@@ -1738,7 +1297,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>11.6</v>
@@ -1781,10 +1340,10 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -1792,7 +1351,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>3.95</v>
@@ -1801,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>3.95</v>
@@ -1827,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>3.6</v>
@@ -1835,7 +1394,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>4.45</v>
@@ -1844,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>4.45</v>
@@ -1858,496 +1417,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F24B7D-969D-43A3-A478-C971577EB681}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>3.9</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>3.99</v>
-      </c>
-      <c r="J2">
-        <v>22.52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3.63</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39F3D8D-CE0B-4645-9ECD-02213DD50B24}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1">
-        <v>11.85</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>11.85</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>3.99</v>
-      </c>
-      <c r="J2">
-        <v>28.29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2.15</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>5.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453A66F3-A4DA-4F19-B809-FE1E260A31E6}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3.53</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>3.53</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>3.99</v>
-      </c>
-      <c r="J2">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="1">
-        <v>8.58</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>8.58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED184B4D-E201-4461-A5E4-22FA861A5D1C}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3.33</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>3.33</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>3.99</v>
-      </c>
-      <c r="J2">
-        <v>29.63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="1">
-        <v>11.61</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>11.61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Output/ShoppingListForm.xlsx
+++ b/Output/ShoppingListForm.xlsx
@@ -5,19 +5,23 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyan\.nuget\packages\aipricecomparisonapp\1.0.2\content\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyan\Documents\UiPath\Newfolder\AIPriceComparisonApp\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348E56B4-EB57-4B7D-91D1-D2C9BB6024C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618A3ABA-44F6-4D77-ABD2-5528EEEE3B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="20910" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="SS_Bruce" sheetId="2" r:id="rId2"/>
-    <sheet name="SS_Wayne" sheetId="3" r:id="rId3"/>
-    <sheet name="SS_George" sheetId="4" r:id="rId4"/>
-    <sheet name="SS_Alice" sheetId="5" r:id="rId5"/>
+    <sheet name="FP_Alice" sheetId="6" r:id="rId2"/>
+    <sheet name="FP_Wayne" sheetId="7" r:id="rId3"/>
+    <sheet name="FP_George" sheetId="8" r:id="rId4"/>
+    <sheet name="FP_Bruce" sheetId="9" r:id="rId5"/>
+    <sheet name="SS_Bruce" sheetId="2" r:id="rId6"/>
+    <sheet name="SS_Wayne" sheetId="3" r:id="rId7"/>
+    <sheet name="SS_George" sheetId="4" r:id="rId8"/>
+    <sheet name="SS_Alice" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="104">
   <si>
     <t>Name</t>
   </si>
@@ -320,12 +324,36 @@
   </si>
   <si>
     <t>https://shengsiong.com.sg/product/le-bao-frozen-steamboat-pork-belly-slices-300-g</t>
+  </si>
+  <si>
+    <t>https://www.fairprice.com.sg/product/agroberries-premium-blueberry-bleuets-125g-10632060</t>
+  </si>
+  <si>
+    <t>https://www.fairprice.com.sg/search?query=Fiber%20Jelly%20Grape</t>
+  </si>
+  <si>
+    <t>https://www.fairprice.com.sg/search?query=Aw%27s%20Market%20Fresh%20Indonesian%20Pork%20Belly%20(Sliced)</t>
+  </si>
+  <si>
+    <t>https://www.fairprice.com.sg/search?query=Nutella%20Hazelnut%20Spread</t>
+  </si>
+  <si>
+    <t>https://www.fairprice.com.sg/product/aw-s-market-chicken-breast-skinless-200-g-90134679</t>
+  </si>
+  <si>
+    <t>https://www.fairprice.com.sg/search?query=Marigold%20HL%20Milk%20-%20Chocolate</t>
+  </si>
+  <si>
+    <t>https://www.fairprice.com.sg/search?query=Classic%20Lays%20Potato%20Chips</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,8 +383,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2 A2:J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,6 +1039,530 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53927D03-79A8-484D-A32F-714AC525D7C0}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3.99</v>
+      </c>
+      <c r="J2" s="1">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3.63</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D72402C-B2B1-46C5-8CB0-6FAB6307BEB4}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="A1:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3.53</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>3.53</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5">
+        <v>3.99</v>
+      </c>
+      <c r="J2" s="5">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="6">
+        <v>8.58</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>8.58</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1B4285-7A70-4EBA-9D63-4F4DE03E5422}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="8">
+        <v>3.33</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>3.33</v>
+      </c>
+      <c r="H2" s="7">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>3.99</v>
+      </c>
+      <c r="J2" s="7">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="8">
+        <v>11.61</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>11.61</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6B1E8B-9CB3-4B84-825D-94A67536D44C}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="A1:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="4">
+        <v>11.85</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>11.85</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3.99</v>
+      </c>
+      <c r="J2" s="3">
+        <v>26.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2.15</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE69A340-DD55-42D1-BE35-FBACDAD1BDBD}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1103,7 +1663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8B3582-44BB-46B4-8E33-82820E2BD5CC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1207,7 +1767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5A4966-2AFC-44B9-B11D-54AE12B662D7}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1313,7 +1873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B88A50-874F-493C-AD7F-1F0560DB17AE}">
   <dimension ref="A1:H4"/>
   <sheetViews>

--- a/Output/ShoppingListForm.xlsx
+++ b/Output/ShoppingListForm.xlsx
@@ -8,20 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyan\Documents\UiPath\Newfolder\AIPriceComparisonApp\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618A3ABA-44F6-4D77-ABD2-5528EEEE3B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D169F8D3-85E1-47A5-99D4-4DF1D1F8483B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="20910" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="2025" windowWidth="20910" windowHeight="11835" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="FP_Alice" sheetId="6" r:id="rId2"/>
-    <sheet name="FP_Wayne" sheetId="7" r:id="rId3"/>
-    <sheet name="FP_George" sheetId="8" r:id="rId4"/>
-    <sheet name="FP_Bruce" sheetId="9" r:id="rId5"/>
-    <sheet name="SS_Bruce" sheetId="2" r:id="rId6"/>
-    <sheet name="SS_Wayne" sheetId="3" r:id="rId7"/>
-    <sheet name="SS_George" sheetId="4" r:id="rId8"/>
-    <sheet name="SS_Alice" sheetId="5" r:id="rId9"/>
+    <sheet name="SS_Bruce" sheetId="2" r:id="rId2"/>
+    <sheet name="SS_Wayne" sheetId="3" r:id="rId3"/>
+    <sheet name="SS_George" sheetId="4" r:id="rId4"/>
+    <sheet name="SS_Alice" sheetId="5" r:id="rId5"/>
+    <sheet name="FP_Alice" sheetId="6" r:id="rId6"/>
+    <sheet name="FP_Bruce" sheetId="7" r:id="rId7"/>
+    <sheet name="FP_Wayne" sheetId="8" r:id="rId8"/>
+    <sheet name="FP_George" sheetId="9" r:id="rId9"/>
+    <sheet name="Alice" sheetId="10" r:id="rId10"/>
+    <sheet name="Bruce" sheetId="11" r:id="rId11"/>
+    <sheet name="Wayne" sheetId="12" r:id="rId12"/>
+    <sheet name="George" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -74,7 +78,7 @@
     <t>Alice_Fresh Blueberries</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/f-n-fruit-tree-fresh-bottle-juice-blueberry-cranberry-200ml-12207922</t>
+    <t>https://www.fairprice.com.sg/product/meiji-paigen-culture-yoghurt-drink-blueberry-160ml-13045018</t>
   </si>
   <si>
     <t>$1.21</t>
@@ -140,7 +144,7 @@
     <t>Bruce_Pokka Ice Lemon Tea</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/search?query=Pokka%20Ice%20Lemon%20Tea</t>
+    <t>https://www.fairprice.com.sg/product/pokka-ice-lemon-tea-15lt-376287</t>
   </si>
   <si>
     <t>$2.15</t>
@@ -197,7 +201,7 @@
     <t>Wayne_Milo Instant Chocalate Malt Drink</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/search?query=Milo%20Instant%20Chocalate%20Malt%20Drink</t>
+    <t>https://www.fairprice.com.sg/product/milo-instant-chocolate-malt-drink-powder-with-milk-gao-kosong-750g-13135484</t>
   </si>
   <si>
     <t>$8.58</t>
@@ -215,7 +219,7 @@
     <t>George_Maggi Big Curry Noodle</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/search?query=Maggi%20Big%20Curry%20Noodle</t>
+    <t>https://www.fairprice.com.sg/product/maggi-2-min-big-noodles-curry-5s-x-111g-13064199</t>
   </si>
   <si>
     <t>$3.33</t>
@@ -230,7 +234,7 @@
     <t>George_Lipton Yellow Label Tea</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/search?query=Lipton%20Yellow%20Label%20Tea</t>
+    <t>https://www.fairprice.com.sg/product/lipton-yellow-label-teabags-100s-72207</t>
   </si>
   <si>
     <t>$5.70</t>
@@ -245,7 +249,7 @@
     <t>George_Panteen Shampoo Hail Fall Control</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/search?query=Panteen%20Shampoo%20Hail%20Fall%20Control</t>
+    <t>https://www.fairprice.com.sg/product/pantene-shampoo-hair-fall-control-680ml-13194383</t>
   </si>
   <si>
     <t>$11.61</t>
@@ -324,35 +328,15 @@
   </si>
   <si>
     <t>https://shengsiong.com.sg/product/le-bao-frozen-steamboat-pork-belly-slices-300-g</t>
-  </si>
-  <si>
-    <t>https://www.fairprice.com.sg/product/agroberries-premium-blueberry-bleuets-125g-10632060</t>
-  </si>
-  <si>
-    <t>https://www.fairprice.com.sg/search?query=Fiber%20Jelly%20Grape</t>
-  </si>
-  <si>
-    <t>https://www.fairprice.com.sg/search?query=Aw%27s%20Market%20Fresh%20Indonesian%20Pork%20Belly%20(Sliced)</t>
-  </si>
-  <si>
-    <t>https://www.fairprice.com.sg/search?query=Nutella%20Hazelnut%20Spread</t>
-  </si>
-  <si>
-    <t>https://www.fairprice.com.sg/product/aw-s-market-chicken-breast-skinless-200-g-90134679</t>
-  </si>
-  <si>
-    <t>https://www.fairprice.com.sg/search?query=Marigold%20HL%20Milk%20-%20Chocolate</t>
-  </si>
-  <si>
-    <t>https://www.fairprice.com.sg/search?query=Classic%20Lays%20Potato%20Chips</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -383,15 +367,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -676,7 +656,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2 A2:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,531 +1018,451 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53927D03-79A8-484D-A32F-714AC525D7C0}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F62EEFE-E4B6-4C68-97C6-30A809D6FB2D}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>97</v>
+      <c r="D2" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="H2" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.21</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>3.99</v>
       </c>
-      <c r="J2" s="1">
-        <v>14.99</v>
+      <c r="J2">
+        <v>19.829999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>98</v>
+      <c r="D3" t="s">
+        <v>19</v>
       </c>
       <c r="E3" s="2">
         <v>3.63</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>3.63</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>99</v>
+      <c r="D4" t="s">
+        <v>24</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D72402C-B2B1-46C5-8CB0-6FAB6307BEB4}">
-  <dimension ref="A1:J4"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4210C3A-3E72-4339-AD46-84A8BA38FABB}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:J4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="6">
-        <v>3.53</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>3.53</v>
-      </c>
-      <c r="H2" s="5">
-        <v>5</v>
-      </c>
-      <c r="I2" s="5">
-        <v>3.99</v>
-      </c>
-      <c r="J2" s="5">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="6">
-        <v>4.8</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>4.8</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="6">
-        <v>8.58</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>8.58</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4.95</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2">
+        <v>4.95</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1.99</v>
+      </c>
+      <c r="H2">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.15</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4.75</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>4.75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1B4285-7A70-4EBA-9D63-4F4DE03E5422}">
-  <dimension ref="A1:J4"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E5BAED-4462-493D-BD07-679A4EC164F2}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="8">
-        <v>3.33</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7">
-        <v>3.33</v>
-      </c>
-      <c r="H2" s="7">
-        <v>5</v>
-      </c>
-      <c r="I2" s="7">
-        <v>3.99</v>
-      </c>
-      <c r="J2" s="7">
-        <v>29.63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="8">
-        <v>5.7</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>5.7</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="8">
-        <v>11.61</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>11.61</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2">
+        <v>3.53</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2">
+        <v>3.53</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1.99</v>
+      </c>
+      <c r="H2">
+        <v>24.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3">
+        <v>4.75</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4">
+        <v>48.57</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4">
+        <v>8.57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6B1E8B-9CB3-4B84-825D-94A67536D44C}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99938270-1BED-4C84-925D-4BFA00D30CCC}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="A1:J4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>100</v>
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
       </c>
       <c r="E2" s="4">
-        <v>11.85</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>11.85</v>
-      </c>
-      <c r="H2" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3.33</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2">
         <v>3.99</v>
       </c>
-      <c r="J2" s="3">
-        <v>26.49</v>
+      <c r="J2">
+        <v>29.63</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
       </c>
       <c r="E3" s="4">
-        <v>2.15</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2.15</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+        <v>5.7</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>101</v>
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
       </c>
       <c r="E4" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+        <v>11.61</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>11.61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE69A340-DD55-42D1-BE35-FBACDAD1BDBD}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1663,7 +1563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8B3582-44BB-46B4-8E33-82820E2BD5CC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1767,7 +1667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5A4966-2AFC-44B9-B11D-54AE12B662D7}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1873,7 +1773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B88A50-874F-493C-AD7F-1F0560DB17AE}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1977,4 +1877,496 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD518BC-5112-43C8-94B7-C77861118D7B}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.21</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>3.99</v>
+      </c>
+      <c r="J2">
+        <v>19.829999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CB7E73-84F4-4165-805C-C0D5134FBFA6}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1">
+        <v>13.07</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>13.07</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>3.99</v>
+      </c>
+      <c r="J2">
+        <v>29.51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89521B27-4C5B-42AD-837E-24F5C47AAB32}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.53</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3.53</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>3.99</v>
+      </c>
+      <c r="J2">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.58</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>8.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B9CC8C-778C-4AD5-9DA3-954AD2C62874}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.33</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3.33</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>3.99</v>
+      </c>
+      <c r="J2">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11.61</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>11.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Output/ShoppingListForm.xlsx
+++ b/Output/ShoppingListForm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyan\Documents\UiPath\Newfolder\AIPriceComparisonApp\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyan\.nuget\packages\aipricecomparisonapp\1.0.2\content\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D169F8D3-85E1-47A5-99D4-4DF1D1F8483B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CA18EF-D246-4E43-8B45-DFF78B3E19E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="2025" windowWidth="20910" windowHeight="11835" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="2025" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,6 @@
     <sheet name="SS_Wayne" sheetId="3" r:id="rId3"/>
     <sheet name="SS_George" sheetId="4" r:id="rId4"/>
     <sheet name="SS_Alice" sheetId="5" r:id="rId5"/>
-    <sheet name="FP_Alice" sheetId="6" r:id="rId6"/>
-    <sheet name="FP_Bruce" sheetId="7" r:id="rId7"/>
-    <sheet name="FP_Wayne" sheetId="8" r:id="rId8"/>
-    <sheet name="FP_George" sheetId="9" r:id="rId9"/>
-    <sheet name="Alice" sheetId="10" r:id="rId10"/>
-    <sheet name="Bruce" sheetId="11" r:id="rId11"/>
-    <sheet name="Wayne" sheetId="12" r:id="rId12"/>
-    <sheet name="George" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -144,7 +136,7 @@
     <t>Bruce_Pokka Ice Lemon Tea</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/pokka-ice-lemon-tea-15lt-376287</t>
+    <t>https://www.fairprice.com.sg/search?query=Pokka%20Ice%20Lemon%20Tea</t>
   </si>
   <si>
     <t>$2.15</t>
@@ -192,7 +184,7 @@
     <t>Wayne_Classic Lays Potato Chips</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/lay-s-potato-chips-classic-170g-13218718</t>
+    <t>https://www.fairprice.com.sg/search?query=Classic%20Lays%20Potato%20Chips</t>
   </si>
   <si>
     <t>Milo Instant Chocalate Malt Drink</t>
@@ -234,7 +226,7 @@
     <t>George_Lipton Yellow Label Tea</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/lipton-yellow-label-teabags-100s-72207</t>
+    <t>https://www.fairprice.com.sg/search?query=Lipton%20Yellow%20Label%20Tea</t>
   </si>
   <si>
     <t>$5.70</t>
@@ -249,7 +241,7 @@
     <t>George_Panteen Shampoo Hail Fall Control</t>
   </si>
   <si>
-    <t>https://www.fairprice.com.sg/product/pantene-shampoo-hair-fall-control-680ml-13194383</t>
+    <t>https://www.fairprice.com.sg/search?query=Panteen%20Shampoo%20Hail%20Fall%20Control</t>
   </si>
   <si>
     <t>$11.61</t>
@@ -334,10 +326,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,12 +355,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2 A2:J13"/>
     </sheetView>
   </sheetViews>
@@ -1011,450 +995,6 @@
       </c>
       <c r="G13" t="s">
         <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F62EEFE-E4B6-4C68-97C6-30A809D6FB2D}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.21</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1.21</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>3.99</v>
-      </c>
-      <c r="J2">
-        <v>19.829999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3.63</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4210C3A-3E72-4339-AD46-84A8BA38FABB}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="3">
-        <v>4.95</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2">
-        <v>4.95</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>1.99</v>
-      </c>
-      <c r="H2">
-        <v>19.989999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2.15</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4.75</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4">
-        <v>4.75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E5BAED-4462-493D-BD07-679A4EC164F2}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2">
-        <v>3.53</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2">
-        <v>3.53</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>1.99</v>
-      </c>
-      <c r="H2">
-        <v>24.84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3">
-        <v>4.75</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4">
-        <v>48.57</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4">
-        <v>8.57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99938270-1BED-4C84-925D-4BFA00D30CCC}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="4">
-        <v>3.33</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>3.33</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>3.99</v>
-      </c>
-      <c r="J2">
-        <v>29.63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="4">
-        <v>11.61</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>11.61</v>
       </c>
     </row>
   </sheetData>
@@ -1877,496 +1417,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD518BC-5112-43C8-94B7-C77861118D7B}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.21</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1.21</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>3.99</v>
-      </c>
-      <c r="J2">
-        <v>19.829999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3.63</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CB7E73-84F4-4165-805C-C0D5134FBFA6}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1">
-        <v>13.07</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>13.07</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>3.99</v>
-      </c>
-      <c r="J2">
-        <v>29.51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2.15</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>5.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89521B27-4C5B-42AD-837E-24F5C47AAB32}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3.53</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>3.53</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>3.99</v>
-      </c>
-      <c r="J2">
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="1">
-        <v>8.58</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>8.58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B9CC8C-778C-4AD5-9DA3-954AD2C62874}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3.33</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>3.33</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>3.99</v>
-      </c>
-      <c r="J2">
-        <v>29.63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="1">
-        <v>11.61</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>11.61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>